--- a/data/income_statement/3digits/total/592_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/592_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>592-Sound recording and music publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>592-Sound recording and music publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>90390.23045999999</v>
+        <v>90390.23046000001</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>112700.35484</v>
@@ -968,25 +874,30 @@
         <v>202569.55481</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>217896.8499</v>
+        <v>228350.55495</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>271104.97685</v>
+        <v>271196.72037</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>302330.62095</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>302537.00587</v>
+        <v>304064.46951</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>366189.05568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>374517.20236</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>522684.906</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>86180.40525</v>
@@ -1007,25 +918,30 @@
         <v>193526.15599</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>201570.21643</v>
+        <v>211803.87706</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>255445.98774</v>
+        <v>255534.73126</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>282064.05677</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>276951.61759</v>
+        <v>278474.08123</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>323205.92269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>331476.52022</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>453498.715</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>955.6938499999999</v>
@@ -1046,7 +962,7 @@
         <v>6409.75116</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>12364.61617</v>
+        <v>12443.72259</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>11958.33501</v>
@@ -1058,13 +974,18 @@
         <v>23087.18133</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>38311.26082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>38317.09157</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>62020.133</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>3254.13136</v>
@@ -1085,25 +1006,30 @@
         <v>2633.64766</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3962.0173</v>
+        <v>4102.9553</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3700.6541</v>
+        <v>3703.6541</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>3074.00082</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2498.20695</v>
+        <v>2503.20695</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4671.87217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4723.59057</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>7166.058</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>3414.97131</v>
@@ -1124,25 +1050,30 @@
         <v>8002.71504</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8222.210929999999</v>
+        <v>8255.89133</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>8993.87304</v>
+        <v>8993.873039999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6744.403700000001</v>
+        <v>6744.403699999999</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>8486.48314</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5019.02191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5185.90868</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4471.471</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2857.31676</v>
@@ -1154,7 +1085,7 @@
         <v>2734.73956</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5540.11748</v>
+        <v>5540.117480000001</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>7358.62634</v>
@@ -1163,28 +1094,33 @@
         <v>6323.019480000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6583.79179</v>
+        <v>6617.47219</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6710.626149999999</v>
+        <v>6710.62615</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4826.460300000001</v>
+        <v>4826.4603</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>5819.04702</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4177.164690000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4290.86462</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3699.466</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>544.0177300000001</v>
+        <v>544.01773</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>761.4617699999999</v>
@@ -1214,13 +1150,18 @@
         <v>2242.09417</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>841.85722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>895.0440600000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>767.08</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>13.63682</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>4.925</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>86975.25915000001</v>
@@ -1280,31 +1226,36 @@
         <v>194566.83977</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>209674.63897</v>
+        <v>220094.66362</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>262111.10381</v>
+        <v>262202.84733</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>295586.21725</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>294050.52273</v>
+        <v>295577.98637</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>361170.03377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>369331.29368</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>518213.435</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>57424.13011999999</v>
+        <v>57424.13012</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>71877.42198</v>
+        <v>71877.42197999998</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>105630.07337</v>
@@ -1319,28 +1270,33 @@
         <v>133679.03147</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>141700.87177</v>
+        <v>152310.78133</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>189447.77277</v>
+        <v>189617.14232</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>202366.47279</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>190713.10511</v>
+        <v>191648.75944</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>220365.8477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>226834.41501</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>277049.278</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5725.433040000001</v>
+        <v>5725.43304</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>6658.4965</v>
@@ -1358,7 +1314,7 @@
         <v>6216.54934</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13178.84776</v>
+        <v>13179.94776</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>11495.93777</v>
@@ -1370,13 +1326,18 @@
         <v>12874.95303</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7493.85223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7522.31491</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4837.198</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>7433.172689999999</v>
@@ -1397,7 +1358,7 @@
         <v>38582.25772</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>17516.21836</v>
+        <v>17580.774</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>25795.98385</v>
@@ -1406,25 +1367,30 @@
         <v>34430.77158</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>19409.58655</v>
+        <v>19446.46094</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>21546.17504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>22227.78666</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>28630.992</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>44265.52439</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>51383.87582</v>
+        <v>51383.87581999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>65998.50309999999</v>
+        <v>65998.5031</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>76881.45916</v>
@@ -1436,25 +1402,30 @@
         <v>88790.98961</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>110564.12476</v>
+        <v>120966.34225</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>151416.56094</v>
+        <v>151585.93049</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>153826.15692</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>158083.35625</v>
+        <v>158982.13619</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>190597.14804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>196355.64105</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>243027.24</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1475,13 +1446,13 @@
         <v>89.23480000000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>441.68089</v>
+        <v>583.7173200000001</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>739.29021</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>446.2165900000001</v>
+        <v>446.2165899999999</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>345.20928</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>728.6723900000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>553.848</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>29551.12903</v>
@@ -1502,37 +1478,42 @@
         <v>38042.89435</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>42408.50079000001</v>
+        <v>42408.50079</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>45467.22022</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>51165.90371000001</v>
+        <v>51165.90371</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>60887.8083</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>67973.76719999999</v>
+        <v>67783.88228999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>72663.33104</v>
+        <v>72585.70501000001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>93219.74445999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>103337.41762</v>
+        <v>103929.22693</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>140804.18607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>142496.87867</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>241164.157</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>24069.45454</v>
@@ -1553,25 +1534,30 @@
         <v>52341.82747</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>53697.17637000001</v>
+        <v>54290.56139</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>55717.07686</v>
+        <v>55723.94778</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>68605.37955</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>78592.06990999999</v>
+        <v>78721.49221</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>109652.47302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>111248.23665</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>164321.187</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>194.07375</v>
@@ -1606,23 +1592,28 @@
       <c r="M21" s="48" t="n">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>5355.135300000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5958.555359999999</v>
+        <v>5958.55536</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>6660.50539</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>9616.271729999999</v>
+        <v>9616.27173</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>13125.40903</v>
@@ -1631,25 +1622,30 @@
         <v>13570.93498</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>20078.4947</v>
+        <v>20307.69658</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>19350.38978</v>
+        <v>19350.58978</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>29342.5292</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>35295.70478</v>
+        <v>35340.4236</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>52499.03805999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>52814.48045999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>86312.595</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>18520.24549</v>
@@ -1670,25 +1666,30 @@
         <v>38670.81344</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>33599.88473</v>
+        <v>33964.06787000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>36366.68708</v>
+        <v>36373.358</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>39262.65035</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>43296.36513</v>
+        <v>43381.06861</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>57149.50496000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>58429.82619</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>78008.592</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>5481.67449</v>
@@ -1706,28 +1707,33 @@
         <v>5997.486339999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8545.98083</v>
+        <v>8545.980830000002</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>14276.59083</v>
+        <v>13493.3209</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>16946.25418</v>
+        <v>16861.75723</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>24614.36491</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>24745.34771</v>
+        <v>25207.73472</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>31151.71305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>31248.64202</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>76842.97</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>3296.32109</v>
@@ -1748,25 +1754,30 @@
         <v>3661.94123</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4797.01773</v>
+        <v>5099.63508</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>22886.80955</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>7157.55494</v>
+        <v>7157.554939999999</v>
       </c>
       <c r="L25" s="47" t="n">
         <v>28713.85286</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>16396.57286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>16470.43063</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>34239.502</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>684.5667099999999</v>
@@ -1865,7 +1886,7 @@
         <v>780.4234799999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>790.7995100000001</v>
+        <v>859.71128</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>1199.48617</v>
@@ -1877,13 +1898,18 @@
         <v>2233.11215</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2201.17838</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2216.12766</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3010.739</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>132.75</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>254.353</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>500.708</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>95.24055</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>164.70884</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1518.42</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2027.41449</v>
@@ -2021,10 +2062,10 @@
         <v>825.6355800000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1924.6462</v>
+        <v>2098.09621</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3179.36539</v>
+        <v>3179.365389999999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3338.67835</v>
@@ -2033,13 +2074,18 @@
         <v>24144.83832</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11463.03975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11463.2809</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>28663.916</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>356.34934</v>
@@ -2138,7 +2194,7 @@
         <v>1818.49139</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1754.82381</v>
+        <v>1815.07938</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>18185.81627</v>
@@ -2150,13 +2206,18 @@
         <v>2105.73358</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2313.29289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2371.96023</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>545.7190000000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>2939.60574</v>
@@ -2171,16 +2232,16 @@
         <v>693.79578</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>946.2314200000001</v>
+        <v>946.23142</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>2285.1136</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1570.09182</v>
+        <v>1678.06214</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2681.00995</v>
+        <v>2681.77508</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>5995.57033</v>
@@ -2189,13 +2250,18 @@
         <v>30612.85443</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>11957.16142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11957.22442</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>24755.59</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>8.85182</v>
@@ -2228,13 +2294,18 @@
         <v>39.94722</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7.95441</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8.01741</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9.241</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>669.50672</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>162.27663</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>599.41</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.4234</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1834.03175</v>
@@ -2330,13 +2411,13 @@
         <v>611.62024</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>711.5936499999999</v>
+        <v>711.59365</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>839.3794799999999</v>
+        <v>947.34979</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1850.7347</v>
+        <v>1851.49983</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3925.40709</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>8415.08684</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>18208.73</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>424.79205</v>
@@ -2450,10 +2546,10 @@
         <v>1379.19772</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>231.65176</v>
+        <v>231.65177</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>668.94814</v>
+        <v>668.9481399999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1947.03333</v>
@@ -2464,35 +2560,40 @@
       <c r="M43" s="48" t="n">
         <v>3371.84354</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>5938.209</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>4102.34367</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5934.971860000001</v>
+        <v>5934.97186</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>10306.4046</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5227.13632</v>
+        <v>5227.136320000001</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>2936.69448</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4965.501960000001</v>
+        <v>4965.50196</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4068.42195</v>
+        <v>4074.13297</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6513.51497</v>
+        <v>6513.55161</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>8113.82711</v>
@@ -2501,19 +2602,24 @@
         <v>6700.025019999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>10900.56982</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>10901.92277</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>8895.171</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4056.850440000001</v>
+        <v>4056.85044</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5934.971860000001</v>
+        <v>5934.97186</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>10306.4046</v>
@@ -2531,7 +2637,7 @@
         <v>4068.42195</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6513.51497</v>
+        <v>6513.55161</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>8113.82711</v>
@@ -2540,13 +2646,18 @@
         <v>6685.472019999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10878.29871</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>10879.65166</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>8823.225</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>45.49323</v>
@@ -2567,7 +2678,7 @@
         <v>0.44263</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>0</v>
+        <v>5.71102</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>0</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>22.27111</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>71.946</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1736.04617</v>
@@ -2597,7 +2713,7 @@
         <v>-2667.22549</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4949.10656</v>
+        <v>4949.106559999999</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>5526.83563</v>
@@ -2606,25 +2722,30 @@
         <v>4957.3065</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>13435.09479</v>
+        <v>12840.76087</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>30638.53881</v>
+        <v>30553.24009</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>17662.52241000001</v>
+        <v>17662.52241</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>16146.32112</v>
+        <v>16608.70813</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>24690.55467</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>24859.92546</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>77431.711</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>778.6292199999999</v>
@@ -2645,25 +2766,30 @@
         <v>1697.13155</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>939.10696</v>
+        <v>939.77241</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1115.68079</v>
+        <v>1163.54016</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>3158.86972</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2209.66037</v>
+        <v>2213.19176</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4651.8381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4681.20944</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3323.019</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>12.12001</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1532.33044</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>766.5092099999999</v>
@@ -2723,25 +2854,30 @@
         <v>1663.78235</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>902.35831</v>
+        <v>903.02376</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1109.82068</v>
+        <v>1157.68005</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>3131.40397</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2206.74425</v>
+        <v>2210.27564</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3119.50766</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3148.879</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3308.019</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3804.86666</v>
@@ -2762,25 +2898,30 @@
         <v>9064.23733</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1246.01421</v>
+        <v>1249.58631</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>12681.13792</v>
+        <v>12681.22891</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>3709.4258</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>12435.83794</v>
+        <v>12436.33921</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5200.04027</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5298.3374</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4657.606</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>2.9253</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>85.50945999999999</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>208.64102</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>842.001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3719.3572</v>
@@ -2873,37 +3024,42 @@
         <v>937.0323400000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>792.2522999999999</v>
+        <v>792.2523</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>8906.09967</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1074.38136</v>
+        <v>1077.95346</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>12663.32418</v>
+        <v>12663.41517</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3668.208360000001</v>
+        <v>3668.20836</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>12183.94769</v>
+        <v>12184.44896</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4988.473950000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>5086.77108</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3815.605</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-1290.19127</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5973.82632</v>
+        <v>5973.826320000001</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-14837.84236</v>
@@ -2915,28 +3071,33 @@
         <v>5028.97537</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2409.79928</v>
+        <v>-2409.799280000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>13128.18754</v>
+        <v>12530.94697</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>19073.08168</v>
+        <v>19035.55134</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>17111.96633</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5920.143550000001</v>
+        <v>6385.56068</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>24142.3525</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>24242.7975</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>76097.124</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1336.83589</v>
@@ -2957,31 +3118,36 @@
         <v>3117.53773</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2902.40841</v>
+        <v>3031.03628</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>7432.665849999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>5660.77411</v>
+        <v>5660.774109999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6001.94515</v>
+        <v>6118.116480000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>8813.594720000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>8934.12941</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>16533.998</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-2627.02716</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3901.115609999999</v>
+        <v>3901.11561</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-16961.5751</v>
@@ -2990,28 +3156,31 @@
         <v>2569.70616</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2388.88273</v>
+        <v>2388.882729999999</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>-5527.33701</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>10225.77913</v>
+        <v>9499.910689999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>11640.41583</v>
+        <v>11602.88549</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>11451.19222</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-81.80160000000056</v>
+        <v>267.4441999999997</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15328.75778</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>15308.66809</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>59563.126</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>198</v>
@@ -3050,22 +3222,25 @@
         <v>266</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>299</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>350</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>